--- a/biology/Microbiologie/Vaginicolidae/Vaginicolidae.xlsx
+++ b/biology/Microbiologie/Vaginicolidae/Vaginicolidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vaginicolidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Vaginicola, composé du préfixe vagini- (du latin vagina, « fourreau, gaine »), et du suffixe -cola (du latin cola, « habiter »), littéralement « habitant d'une gaine ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vaginicolidae ont une taille petite (&lt;80 µm) à grande (&gt;200 µm). Leur forme est conique à cylindrique, généralement très élancée. Leur zooïde est contractile, attachée à la lorique par une extrémité aborale, avec ou sans tige ; cette lorica est attachée soit directement au substrat, soit au moyen d'une tige. Leur région buccale est saillante bien au-delà de l'ouverture de la lorica, et possède une lèvre péristomiale rétractable et un disque épistomial distinct. Leur reproduction s'effectue par fission isotomique ou anisotomique. Leur macronoyau est en forme de ruban, parallèle au grand axe du corps. Micronoyau et vacuole contractile sont présents. Leur cytoprocte n'a pas été observé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vaginicolidae ont une taille petite (&lt;80 µm) à grande (&gt;200 µm). Leur forme est conique à cylindrique, généralement très élancée. Leur zooïde est contractile, attachée à la lorique par une extrémité aborale, avec ou sans tige ; cette lorica est attachée soit directement au substrat, soit au moyen d'une tige. Leur région buccale est saillante bien au-delà de l'ouverture de la lorica, et possède une lèvre péristomiale rétractable et un disque épistomial distinct. Leur reproduction s'effectue par fission isotomique ou anisotomique. Leur macronoyau est en forme de ruban, parallèle au grand axe du corps. Micronoyau et vacuole contractile sont présents. Leur cytoprocte n'a pas été observé.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vaginicolidae vivent en eau de mer comme en eau douce, attachés à des plantes ou à des substrats inanimés ou comme symphoriontes[note 1],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vaginicolidae vivent en eau de mer comme en eau douce, attachés à des plantes ou à des substrats inanimés ou comme symphoriontes[note 1],.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 février 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 février 2024) :
 Cothurina
 Cothurnia Ehrenberg, 1831
 Cothurniopsis Stokes, 1893
@@ -623,7 +643,7 @@
 Vaginicola Lamarck genre type
 Espèce type : Vaginicola crystallina (Ehrenberg, 1830) Ehrenberg, 1838
 Espèces synonymes : Trichoda ingenita Müller, 1786 ; Vaginicola ingenita (Müller, 1786)
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Australana Jankowski, 1986
 Baikalotheca Jankowski, 1985
 Caulicola Stokes, 1894 (subj. syn. Pyxicola )
@@ -642,7 +662,7 @@
 Thuricola Kent, 1881
 Triacola Weitschat &amp; Guhl, 1994 : fossile du Trias inférieur
 Vaginicola Lamarck, 1816
-Cyclodonta Matthes, 1958 incertae sedis (position taxonomique incertaine) de la famille des Vaginicolidae[1].</t>
+Cyclodonta Matthes, 1958 incertae sedis (position taxonomique incertaine) de la famille des Vaginicolidae.</t>
         </is>
       </c>
     </row>
@@ -670,9 +690,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Vaginicolidae de Fromentel, 1874[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Vaginicolidae de Fromentel, 1874.
 </t>
         </is>
       </c>
